--- a/Tesis/Toolbox Epileptic EEG Analysis/pruebas/tiempos.xlsx
+++ b/Tesis/Toolbox Epileptic EEG Analysis/pruebas/tiempos.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris Pat\Desktop\U\Semestre_10\Tesis\Toolbox Epileptic EEG Analysis\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7953FFBB-9487-4D13-A343-4E6589167B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9FAE31-D6FA-4D18-986C-BB751138758E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAC1CEBD-7906-4843-9025-508EFB0F1551}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Caracteristicas" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Descripción</t>
   </si>
@@ -57,19 +58,40 @@
   </si>
   <si>
     <t>rnn frecuencia</t>
+  </si>
+  <si>
+    <t>Hora de inicio</t>
+  </si>
+  <si>
+    <t>Tiempo continuo</t>
+  </si>
+  <si>
+    <t>Wavelet</t>
+  </si>
+  <si>
+    <t>θ/α</t>
+  </si>
+  <si>
+    <t>Duración</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,13 +129,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,6 +154,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>332068</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57C1F358-1145-C660-79E8-8DDB998E53A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6347460" y="1821180"/>
+          <a:ext cx="4286848" cy="1295581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>777241</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>472441</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>111096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF09E5FE-CE6F-36C0-479B-39B2A6094AAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324601" y="175260"/>
+          <a:ext cx="4450080" cy="1581756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>185424</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>16873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3899DBF-E4A7-FCBE-FD29-449DA2760E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6827520" y="3147060"/>
+          <a:ext cx="4140204" cy="1807573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>686225</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>156420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB87A8D-27FC-7CDF-A077-8E6BE4D9BDC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="5052060"/>
+          <a:ext cx="3048425" cy="1505160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,11 +633,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFA3893-AE29-47D6-B7E1-4E783D2C6EBD}">
+  <dimension ref="A2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.64799768518518519</v>
+      </c>
+      <c r="D3" s="5">
+        <f>C3-B3</f>
+        <v>2.7164351851851842E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.64967592592592593</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D5" si="0">C4-B4</f>
+        <v>3.7037037037035425E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.71556712962962965</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.99782407407407403</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.28225694444444438</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E821ECC-1F72-449F-89BA-686E9994CD1E}">
   <dimension ref="B2:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,43 +728,43 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.45624999999999999</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.48472222222222222</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.53125</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Tesis/Toolbox Epileptic EEG Analysis/pruebas/tiempos.xlsx
+++ b/Tesis/Toolbox Epileptic EEG Analysis/pruebas/tiempos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris Pat\Desktop\U\Semestre_10\Tesis\Toolbox Epileptic EEG Analysis\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9FAE31-D6FA-4D18-986C-BB751138758E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CA22AB-01BE-416D-B136-DC0252F6E601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAC1CEBD-7906-4843-9025-508EFB0F1551}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DAC1CEBD-7906-4843-9025-508EFB0F1551}"/>
   </bookViews>
   <sheets>
     <sheet name="Caracteristicas" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Descripción</t>
   </si>
@@ -54,9 +54,6 @@
     <t>clasificador</t>
   </si>
   <si>
-    <t>rnn</t>
-  </si>
-  <si>
     <t>rnn frecuencia</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>Duración</t>
+  </si>
+  <si>
+    <t>rnn tiempo</t>
   </si>
 </sst>
 </file>
@@ -133,12 +133,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFA3893-AE29-47D6-B7E1-4E783D2C6EBD}">
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,58 +650,82 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
         <v>0.62083333333333335</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.64799768518518519</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f>C3-B3</f>
         <v>2.7164351851851842E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.64967592592592593</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D7" si="0">C4-B4</f>
+        <v>3.7037037037035425E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.64967592592592593</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" ref="D4:D5" si="0">C4-B4</f>
-        <v>3.7037037037035425E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.71556712962962965</v>
       </c>
-      <c r="C5" s="5">
-        <v>0.99782407407407403</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="4">
+        <v>0.7686574074074074</v>
+      </c>
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>0.28225694444444438</v>
+        <v>5.309027777777775E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.81559027777777782</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>4.4756944444444446E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>0.81805555555555554</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.86396990740740742</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5914351851851887E-2</v>
       </c>
     </row>
   </sheetData>
@@ -712,30 +736,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E821ECC-1F72-449F-89BA-686E9994CD1E}">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -743,34 +767,60 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
-        <v>0.39583333333333331</v>
+        <v>0.71423611111111107</v>
       </c>
       <c r="C5" s="2">
-        <v>0.45624999999999999</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D5" s="2">
+        <f>C5-B5</f>
+        <v>-0.11701388888888886</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>0.48472222222222222</v>
       </c>
       <c r="C6" s="2">
         <v>0.53125</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6" si="0">C6-B6</f>
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7-B7</f>
+        <v>8.3333333333334147E-3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="D2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tesis/Toolbox Epileptic EEG Analysis/pruebas/tiempos.xlsx
+++ b/Tesis/Toolbox Epileptic EEG Analysis/pruebas/tiempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris Pat\Desktop\U\Semestre_10\Tesis\Toolbox Epileptic EEG Analysis\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CA22AB-01BE-416D-B136-DC0252F6E601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EB9B7F-B8F5-4D8A-91BE-122D0B8E70CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DAC1CEBD-7906-4843-9025-508EFB0F1551}"/>
   </bookViews>
@@ -326,6 +326,55 @@
         <a:xfrm>
           <a:off x="7010400" y="5052060"/>
           <a:ext cx="3048425" cy="1505160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>109097</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF5E0278-3D8E-4467-9404-416FE5EB3117}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8671560" y="457200"/>
+          <a:ext cx="3667637" cy="2114845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -739,7 +788,7 @@
   <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,5 +872,6 @@
     <mergeCell ref="D2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>